--- a/EXCEL 02.xlsx
+++ b/EXCEL 02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp2\Desktop\EXCEL PRATICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E04B8-A8BC-4023-9014-21297EBB3B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF798AC-28B5-4239-B7DA-9D39CEB6A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="14175" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -688,7 +688,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -884,7 +885,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -896,6 +897,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -908,7 +910,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
@@ -929,6 +930,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -939,12 +941,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency [0]" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Euro" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Euro 2" xfId="10" xr:uid="{AABE2ED2-6E30-451E-AC5F-CB9F262C13E8}"/>
     <cellStyle name="Migliaia 2" xfId="9" xr:uid="{D537F2D8-156A-42A0-B293-31B6E89567B2}"/>
+    <cellStyle name="Migliaia 2 2" xfId="11" xr:uid="{A33EA757-DE8E-46B4-B658-69C20E5F8373}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="6" xr:uid="{3D179E92-2E47-43E0-9810-C609F7774ECE}"/>
     <cellStyle name="Normale 3" xfId="8" xr:uid="{AF7621DB-C5E8-4E70-88F1-034C3F00C02E}"/>
@@ -1263,8 +1266,8 @@
   <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F212" sqref="F212"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1276,7 @@
     <col min="2" max="2" width="54.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7109375" style="7"/>
@@ -1290,7 +1293,7 @@
       <c r="F2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -1302,13 +1305,13 @@
       <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1332,17 +1335,17 @@
         <f>IF(AND(B5="ABBIGLIAMENTO",C5&gt;300000),"TROVATO"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="28" t="str">
         <f t="shared" ref="E5:E68" si="0">IF(A5="HHB",C5*IVA," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <f>SUM(imponibile)</f>
         <v>171416000</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <f>AVERAGE(imponibile)</f>
-        <v>510166.66666666669</v>
+        <v>519442.42424242425</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1359,7 +1362,7 @@
         <f t="shared" ref="D6:D69" si="1">IF(AND(B6="ABBIGLIAMENTO",C6&gt;300000),"TROVATO"," ")</f>
         <v>TROVATO</v>
       </c>
-      <c r="E6" s="29" t="str">
+      <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1378,7 +1381,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>68800</v>
       </c>
@@ -1397,7 +1400,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1416,7 +1419,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1435,7 +1438,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1454,7 +1457,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="29" t="str">
+      <c r="E11" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1473,7 +1476,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>131200</v>
       </c>
@@ -1492,7 +1495,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1511,7 +1514,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1530,7 +1533,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1549,7 +1552,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1568,7 +1571,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1587,7 +1590,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1599,14 +1602,14 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="30">
         <v>0</v>
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1625,7 +1628,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1644,7 +1647,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1656,14 +1659,14 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="30">
         <v>0</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="29" t="str">
+      <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1682,7 +1685,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1701,7 +1704,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="29" t="str">
+      <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1720,7 +1723,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1739,7 +1742,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="29" t="str">
+      <c r="E26" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1758,7 +1761,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="29" t="str">
+      <c r="E27" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1777,7 +1780,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1796,7 +1799,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E29" s="29" t="str">
+      <c r="E29" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1815,7 +1818,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="29" t="str">
+      <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1834,7 +1837,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E31" s="29" t="str">
+      <c r="E31" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1853,7 +1856,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="29" t="str">
+      <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1872,7 +1875,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E33" s="29" t="str">
+      <c r="E33" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1891,7 +1894,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E34" s="29" t="str">
+      <c r="E34" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1910,7 +1913,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E35" s="29" t="str">
+      <c r="E35" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1929,7 +1932,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E36" s="29" t="str">
+      <c r="E36" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1948,7 +1951,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="29" t="str">
+      <c r="E37" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1967,7 +1970,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="29" t="str">
+      <c r="E38" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1979,14 +1982,14 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="30">
         <v>0</v>
       </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E39" s="29" t="str">
+      <c r="E39" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2005,7 +2008,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E40" s="29" t="str">
+      <c r="E40" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2024,7 +2027,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E41" s="29" t="str">
+      <c r="E41" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2043,7 +2046,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E42" s="29" t="str">
+      <c r="E42" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2062,7 +2065,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E43" s="29" t="str">
+      <c r="E43" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2081,7 +2084,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E44" s="29" t="str">
+      <c r="E44" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2100,7 +2103,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E45" s="29" t="str">
+      <c r="E45" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2119,7 +2122,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E46" s="29" t="str">
+      <c r="E46" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2138,7 +2141,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E47" s="29" t="str">
+      <c r="E47" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2157,7 +2160,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E48" s="29" t="str">
+      <c r="E48" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2176,7 +2179,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E49" s="29" t="str">
+      <c r="E49" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2195,7 +2198,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E50" s="29" t="str">
+      <c r="E50" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2214,7 +2217,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E51" s="29" t="str">
+      <c r="E51" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2233,7 +2236,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E52" s="29" t="str">
+      <c r="E52" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2252,7 +2255,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E53" s="29" t="str">
+      <c r="E53" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2271,7 +2274,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E54" s="29" t="str">
+      <c r="E54" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2290,7 +2293,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E55" s="29" t="str">
+      <c r="E55" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2309,7 +2312,7 @@
         <f t="shared" si="1"/>
         <v>TROVATO</v>
       </c>
-      <c r="E56" s="29" t="str">
+      <c r="E56" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2328,7 +2331,7 @@
         <f t="shared" si="1"/>
         <v>TROVATO</v>
       </c>
-      <c r="E57" s="29" t="str">
+      <c r="E57" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2347,7 +2350,7 @@
         <f t="shared" si="1"/>
         <v>TROVATO</v>
       </c>
-      <c r="E58" s="29" t="str">
+      <c r="E58" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2366,7 +2369,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E59" s="29" t="str">
+      <c r="E59" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2385,7 +2388,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E60" s="29" t="str">
+      <c r="E60" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2404,7 +2407,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E61" s="29" t="str">
+      <c r="E61" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2423,7 +2426,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E62" s="29" t="str">
+      <c r="E62" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2442,7 +2445,7 @@
         <f t="shared" si="1"/>
         <v>TROVATO</v>
       </c>
-      <c r="E63" s="29" t="str">
+      <c r="E63" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2461,7 +2464,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E64" s="29" t="str">
+      <c r="E64" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2473,14 +2476,14 @@
       <c r="B65" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="30">
         <v>0</v>
       </c>
       <c r="D65" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E65" s="29" t="str">
+      <c r="E65" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2499,7 +2502,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E66" s="29" t="str">
+      <c r="E66" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2518,7 +2521,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E67" s="29" t="str">
+      <c r="E67" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2537,7 +2540,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E68" s="29" t="str">
+      <c r="E68" s="28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2556,7 +2559,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E69" s="29" t="str">
+      <c r="E69" s="28" t="str">
         <f t="shared" ref="E69:E132" si="2">IF(A69="HHB",C69*IVA," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -2575,7 +2578,7 @@
         <f t="shared" ref="D70:D133" si="3">IF(AND(B70="ABBIGLIAMENTO",C70&gt;300000),"TROVATO"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E70" s="29" t="str">
+      <c r="E70" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2594,7 +2597,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E71" s="29" t="str">
+      <c r="E71" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2613,7 +2616,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E72" s="29" t="str">
+      <c r="E72" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2632,7 +2635,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E73" s="29" t="str">
+      <c r="E73" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2651,7 +2654,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E74" s="29" t="str">
+      <c r="E74" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2670,7 +2673,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E75" s="29" t="str">
+      <c r="E75" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2689,7 +2692,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E76" s="29" t="str">
+      <c r="E76" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2708,7 +2711,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E77" s="29" t="str">
+      <c r="E77" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2727,7 +2730,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E78" s="29" t="str">
+      <c r="E78" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2746,7 +2749,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E79" s="29" t="str">
+      <c r="E79" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2765,7 +2768,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E80" s="29" t="str">
+      <c r="E80" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2777,14 +2780,14 @@
       <c r="B81" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="30">
         <v>0</v>
       </c>
       <c r="D81" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E81" s="29" t="str">
+      <c r="E81" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2803,7 +2806,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E82" s="29" t="str">
+      <c r="E82" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2822,7 +2825,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E83" s="29" t="str">
+      <c r="E83" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2841,7 +2844,7 @@
         <f t="shared" si="3"/>
         <v>TROVATO</v>
       </c>
-      <c r="E84" s="29" t="str">
+      <c r="E84" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2860,7 +2863,7 @@
         <f t="shared" si="3"/>
         <v>TROVATO</v>
       </c>
-      <c r="E85" s="29" t="str">
+      <c r="E85" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2879,7 +2882,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="28">
         <f t="shared" si="2"/>
         <v>93800</v>
       </c>
@@ -2898,7 +2901,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E87" s="29" t="str">
+      <c r="E87" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2917,7 +2920,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E88" s="29" t="str">
+      <c r="E88" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2936,7 +2939,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E89" s="29" t="str">
+      <c r="E89" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2955,7 +2958,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E90" s="29" t="str">
+      <c r="E90" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2974,7 +2977,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="28">
         <f t="shared" si="2"/>
         <v>139000</v>
       </c>
@@ -2993,7 +2996,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E92" s="29" t="str">
+      <c r="E92" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3012,7 +3015,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E93" s="29" t="str">
+      <c r="E93" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3031,7 +3034,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E94" s="29" t="str">
+      <c r="E94" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3050,7 +3053,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E95" s="29" t="str">
+      <c r="E95" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3069,7 +3072,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E96" s="29" t="str">
+      <c r="E96" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3088,7 +3091,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E97" s="29" t="str">
+      <c r="E97" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3107,7 +3110,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E98" s="29" t="str">
+      <c r="E98" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3126,7 +3129,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E99" s="29" t="str">
+      <c r="E99" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3145,7 +3148,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E100" s="29" t="str">
+      <c r="E100" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3164,7 +3167,7 @@
         <f t="shared" si="3"/>
         <v>TROVATO</v>
       </c>
-      <c r="E101" s="29" t="str">
+      <c r="E101" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3183,7 +3186,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E102" s="29" t="str">
+      <c r="E102" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3202,7 +3205,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E103" s="29" t="str">
+      <c r="E103" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3221,7 +3224,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E104" s="29" t="str">
+      <c r="E104" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3240,7 +3243,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E105" s="29" t="str">
+      <c r="E105" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3252,14 +3255,14 @@
       <c r="B106" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="30">
         <v>0</v>
       </c>
       <c r="D106" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E106" s="29" t="str">
+      <c r="E106" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3278,7 +3281,7 @@
         <f t="shared" si="3"/>
         <v>TROVATO</v>
       </c>
-      <c r="E107" s="29" t="str">
+      <c r="E107" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3297,7 +3300,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E108" s="29" t="str">
+      <c r="E108" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3316,7 +3319,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E109" s="29" t="str">
+      <c r="E109" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3328,14 +3331,14 @@
       <c r="B110" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="30">
         <v>0</v>
       </c>
       <c r="D110" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E110" s="29" t="str">
+      <c r="E110" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3354,7 +3357,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E111" s="29" t="str">
+      <c r="E111" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3373,7 +3376,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E112" s="29" t="str">
+      <c r="E112" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3392,7 +3395,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E113" s="29" t="str">
+      <c r="E113" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3411,7 +3414,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E114" s="29" t="str">
+      <c r="E114" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3430,7 +3433,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E115" s="29" t="str">
+      <c r="E115" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3449,7 +3452,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E116" s="29" t="str">
+      <c r="E116" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3468,7 +3471,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E117" s="29" t="str">
+      <c r="E117" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3487,7 +3490,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E118" s="29" t="str">
+      <c r="E118" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3499,14 +3502,14 @@
       <c r="B119" t="s">
         <v>68</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="30">
         <v>0</v>
       </c>
       <c r="D119" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E119" s="29" t="str">
+      <c r="E119" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3525,7 +3528,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E120" s="29" t="str">
+      <c r="E120" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3544,7 +3547,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E121" s="29" t="str">
+      <c r="E121" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3563,7 +3566,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E122" s="29" t="str">
+      <c r="E122" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3582,7 +3585,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E123" s="29" t="str">
+      <c r="E123" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3601,7 +3604,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E124" s="29" t="str">
+      <c r="E124" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3620,7 +3623,7 @@
         <f t="shared" si="3"/>
         <v>TROVATO</v>
       </c>
-      <c r="E125" s="29" t="str">
+      <c r="E125" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3639,7 +3642,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E126" s="29" t="str">
+      <c r="E126" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3658,7 +3661,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E127" s="29" t="str">
+      <c r="E127" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3677,7 +3680,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E128" s="29" t="str">
+      <c r="E128" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3696,7 +3699,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E129" s="29" t="str">
+      <c r="E129" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3715,7 +3718,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E130" s="29" t="str">
+      <c r="E130" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3727,14 +3730,14 @@
       <c r="B131" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="30">
         <v>0</v>
       </c>
       <c r="D131" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E131" s="29" t="str">
+      <c r="E131" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3753,7 +3756,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E132" s="29" t="str">
+      <c r="E132" s="28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3772,7 +3775,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E133" s="29" t="str">
+      <c r="E133" s="28" t="str">
         <f t="shared" ref="E133:E196" si="4">IF(A133="HHB",C133*IVA," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3791,7 +3794,7 @@
         <f t="shared" ref="D134:D197" si="5">IF(AND(B134="ABBIGLIAMENTO",C134&gt;300000),"TROVATO"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E134" s="29" t="str">
+      <c r="E134" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3803,14 +3806,14 @@
       <c r="B135" t="s">
         <v>6</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="30">
         <v>0</v>
       </c>
       <c r="D135" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E135" s="29" t="str">
+      <c r="E135" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3829,7 +3832,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E136" s="29" t="str">
+      <c r="E136" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3848,7 +3851,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E137" s="29" t="str">
+      <c r="E137" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3867,7 +3870,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E138" s="29" t="str">
+      <c r="E138" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3886,7 +3889,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E139" s="29" t="str">
+      <c r="E139" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3905,7 +3908,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E140" s="29" t="str">
+      <c r="E140" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3924,7 +3927,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E141" s="29" t="str">
+      <c r="E141" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3943,7 +3946,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E142" s="29" t="str">
+      <c r="E142" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3962,7 +3965,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E143" s="29" t="str">
+      <c r="E143" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3981,7 +3984,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E144" s="29" t="str">
+      <c r="E144" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4000,7 +4003,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E145" s="29" t="str">
+      <c r="E145" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4019,7 +4022,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E146" s="29" t="str">
+      <c r="E146" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4038,7 +4041,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E147" s="29" t="str">
+      <c r="E147" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4057,7 +4060,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E148" s="29" t="str">
+      <c r="E148" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4076,7 +4079,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E149" s="29" t="str">
+      <c r="E149" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4095,7 +4098,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E150" s="29" t="str">
+      <c r="E150" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4114,7 +4117,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E151" s="29" t="str">
+      <c r="E151" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4133,7 +4136,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E152" s="29" t="str">
+      <c r="E152" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4145,14 +4148,12 @@
       <c r="B153" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="10">
-        <v>0</v>
-      </c>
+      <c r="C153" s="30"/>
       <c r="D153" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E153" s="29" t="str">
+      <c r="E153" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4171,7 +4172,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E154" s="29" t="str">
+      <c r="E154" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4190,7 +4191,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E155" s="29" t="str">
+      <c r="E155" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4209,7 +4210,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E156" s="29" t="str">
+      <c r="E156" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4228,7 +4229,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E157" s="29" t="str">
+      <c r="E157" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4247,7 +4248,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E158" s="29" t="str">
+      <c r="E158" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4266,7 +4267,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E159" s="29" t="str">
+      <c r="E159" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4285,7 +4286,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E160" s="29" t="str">
+      <c r="E160" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4304,7 +4305,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E161" s="29" t="str">
+      <c r="E161" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4323,7 +4324,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E162" s="29" t="str">
+      <c r="E162" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4342,7 +4343,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E163" s="29" t="str">
+      <c r="E163" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4361,7 +4362,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E164" s="29" t="str">
+      <c r="E164" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4373,14 +4374,14 @@
       <c r="B165" t="s">
         <v>38</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="30">
         <v>0</v>
       </c>
       <c r="D165" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E165" s="29">
+      <c r="E165" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4399,7 +4400,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E166" s="29" t="str">
+      <c r="E166" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4418,7 +4419,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E167" s="29" t="str">
+      <c r="E167" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4437,7 +4438,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E168" s="29" t="str">
+      <c r="E168" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4456,7 +4457,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E169" s="29" t="str">
+      <c r="E169" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4475,7 +4476,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E170" s="29">
+      <c r="E170" s="28">
         <f t="shared" si="4"/>
         <v>151400</v>
       </c>
@@ -4494,7 +4495,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E171" s="29" t="str">
+      <c r="E171" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4513,7 +4514,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E172" s="29" t="str">
+      <c r="E172" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4532,7 +4533,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E173" s="29" t="str">
+      <c r="E173" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4551,7 +4552,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E174" s="29" t="str">
+      <c r="E174" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4570,7 +4571,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E175" s="29" t="str">
+      <c r="E175" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4589,7 +4590,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E176" s="29" t="str">
+      <c r="E176" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4608,7 +4609,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E177" s="29" t="str">
+      <c r="E177" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4627,7 +4628,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E178" s="29" t="str">
+      <c r="E178" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4646,7 +4647,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E179" s="29" t="str">
+      <c r="E179" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4665,7 +4666,7 @@
         <f t="shared" si="5"/>
         <v>TROVATO</v>
       </c>
-      <c r="E180" s="29" t="str">
+      <c r="E180" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4684,7 +4685,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E181" s="29" t="str">
+      <c r="E181" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4703,7 +4704,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E182" s="29" t="str">
+      <c r="E182" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4722,7 +4723,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E183" s="29" t="str">
+      <c r="E183" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4741,7 +4742,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E184" s="29" t="str">
+      <c r="E184" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4760,7 +4761,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E185" s="29" t="str">
+      <c r="E185" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4779,7 +4780,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E186" s="29" t="str">
+      <c r="E186" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4791,14 +4792,12 @@
       <c r="B187" t="s">
         <v>38</v>
       </c>
-      <c r="C187" s="10">
-        <v>0</v>
-      </c>
+      <c r="C187" s="30"/>
       <c r="D187" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E187" s="29" t="str">
+      <c r="E187" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4817,7 +4816,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E188" s="29" t="str">
+      <c r="E188" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4836,7 +4835,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E189" s="29" t="str">
+      <c r="E189" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4855,7 +4854,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E190" s="29" t="str">
+      <c r="E190" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4874,7 +4873,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E191" s="29" t="str">
+      <c r="E191" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4893,7 +4892,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E192" s="29" t="str">
+      <c r="E192" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4912,7 +4911,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E193" s="29" t="str">
+      <c r="E193" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4931,7 +4930,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E194" s="29" t="str">
+      <c r="E194" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4943,14 +4942,12 @@
       <c r="B195" t="s">
         <v>10</v>
       </c>
-      <c r="C195" s="10">
-        <v>0</v>
-      </c>
+      <c r="C195" s="30"/>
       <c r="D195" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E195" s="29" t="str">
+      <c r="E195" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4969,7 +4966,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E196" s="29" t="str">
+      <c r="E196" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4988,7 +4985,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E197" s="29" t="str">
+      <c r="E197" s="28" t="str">
         <f t="shared" ref="E197:E260" si="6">IF(A197="HHB",C197*IVA," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -5007,7 +5004,7 @@
         <f t="shared" ref="D198:D261" si="7">IF(AND(B198="ABBIGLIAMENTO",C198&gt;300000),"TROVATO"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E198" s="29" t="str">
+      <c r="E198" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5026,7 +5023,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E199" s="29" t="str">
+      <c r="E199" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5045,7 +5042,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E200" s="29" t="str">
+      <c r="E200" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5064,7 +5061,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E201" s="29" t="str">
+      <c r="E201" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5083,7 +5080,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E202" s="29" t="str">
+      <c r="E202" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5102,7 +5099,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E203" s="29" t="str">
+      <c r="E203" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5121,7 +5118,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E204" s="29" t="str">
+      <c r="E204" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5140,7 +5137,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E205" s="29" t="str">
+      <c r="E205" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5159,7 +5156,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E206" s="29" t="str">
+      <c r="E206" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5178,7 +5175,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E207" s="29" t="str">
+      <c r="E207" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5197,7 +5194,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E208" s="29" t="str">
+      <c r="E208" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5216,7 +5213,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E209" s="29" t="str">
+      <c r="E209" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5235,7 +5232,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E210" s="29" t="str">
+      <c r="E210" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5254,7 +5251,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E211" s="29" t="str">
+      <c r="E211" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5273,7 +5270,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E212" s="29" t="str">
+      <c r="E212" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5292,7 +5289,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E213" s="29" t="str">
+      <c r="E213" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5311,7 +5308,7 @@
         <f t="shared" si="7"/>
         <v>TROVATO</v>
       </c>
-      <c r="E214" s="29" t="str">
+      <c r="E214" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5330,7 +5327,7 @@
         <f t="shared" si="7"/>
         <v>TROVATO</v>
       </c>
-      <c r="E215" s="29" t="str">
+      <c r="E215" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5349,7 +5346,7 @@
         <f t="shared" si="7"/>
         <v>TROVATO</v>
       </c>
-      <c r="E216" s="29" t="str">
+      <c r="E216" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5368,7 +5365,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E217" s="29" t="str">
+      <c r="E217" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5387,7 +5384,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E218" s="29" t="str">
+      <c r="E218" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5406,7 +5403,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E219" s="29" t="str">
+      <c r="E219" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5425,7 +5422,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E220" s="29" t="str">
+      <c r="E220" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5444,7 +5441,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E221" s="29" t="str">
+      <c r="E221" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5463,7 +5460,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E222" s="29" t="str">
+      <c r="E222" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5482,7 +5479,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E223" s="29" t="str">
+      <c r="E223" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5501,7 +5498,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E224" s="29" t="str">
+      <c r="E224" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5520,7 +5517,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E225" s="29" t="str">
+      <c r="E225" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5539,7 +5536,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E226" s="29" t="str">
+      <c r="E226" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5558,7 +5555,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E227" s="29" t="str">
+      <c r="E227" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5577,7 +5574,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E228" s="29" t="str">
+      <c r="E228" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5596,7 +5593,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E229" s="29" t="str">
+      <c r="E229" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5615,7 +5612,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E230" s="29" t="str">
+      <c r="E230" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5627,14 +5624,12 @@
       <c r="B231" t="s">
         <v>38</v>
       </c>
-      <c r="C231" s="10">
-        <v>0</v>
-      </c>
+      <c r="C231" s="30"/>
       <c r="D231" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E231" s="29" t="str">
+      <c r="E231" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5653,7 +5648,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E232" s="29" t="str">
+      <c r="E232" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5672,7 +5667,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E233" s="29" t="str">
+      <c r="E233" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5691,7 +5686,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E234" s="29" t="str">
+      <c r="E234" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5710,7 +5705,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E235" s="29" t="str">
+      <c r="E235" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5729,7 +5724,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E236" s="29" t="str">
+      <c r="E236" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5748,7 +5743,7 @@
         <f t="shared" si="7"/>
         <v>TROVATO</v>
       </c>
-      <c r="E237" s="29" t="str">
+      <c r="E237" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5767,7 +5762,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E238" s="29" t="str">
+      <c r="E238" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5786,7 +5781,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E239" s="29" t="str">
+      <c r="E239" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5805,7 +5800,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E240" s="29" t="str">
+      <c r="E240" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5824,7 +5819,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E241" s="29" t="str">
+      <c r="E241" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5843,7 +5838,7 @@
         <f t="shared" si="7"/>
         <v>TROVATO</v>
       </c>
-      <c r="E242" s="29" t="str">
+      <c r="E242" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5862,7 +5857,7 @@
         <f t="shared" si="7"/>
         <v>TROVATO</v>
       </c>
-      <c r="E243" s="29" t="str">
+      <c r="E243" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5881,7 +5876,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E244" s="29">
+      <c r="E244" s="28">
         <f t="shared" si="6"/>
         <v>266800</v>
       </c>
@@ -5900,7 +5895,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E245" s="29" t="str">
+      <c r="E245" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5919,7 +5914,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E246" s="29" t="str">
+      <c r="E246" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5938,7 +5933,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E247" s="29" t="str">
+      <c r="E247" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5957,7 +5952,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E248" s="29" t="str">
+      <c r="E248" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5976,7 +5971,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E249" s="29">
+      <c r="E249" s="28">
         <f t="shared" si="6"/>
         <v>129000</v>
       </c>
@@ -5995,7 +5990,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E250" s="29" t="str">
+      <c r="E250" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6014,7 +6009,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E251" s="29" t="str">
+      <c r="E251" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6033,7 +6028,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E252" s="29" t="str">
+      <c r="E252" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6052,7 +6047,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E253" s="29" t="str">
+      <c r="E253" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6071,7 +6066,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E254" s="29" t="str">
+      <c r="E254" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6090,7 +6085,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E255" s="29" t="str">
+      <c r="E255" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6109,7 +6104,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E256" s="29" t="str">
+      <c r="E256" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6128,7 +6123,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E257" s="29" t="str">
+      <c r="E257" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6147,7 +6142,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E258" s="29" t="str">
+      <c r="E258" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6166,7 +6161,7 @@
         <f t="shared" si="7"/>
         <v>TROVATO</v>
       </c>
-      <c r="E259" s="29" t="str">
+      <c r="E259" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6185,7 +6180,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E260" s="29" t="str">
+      <c r="E260" s="28" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6204,7 +6199,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E261" s="29" t="str">
+      <c r="E261" s="28" t="str">
         <f t="shared" ref="E261:E324" si="8">IF(A261="HHB",C261*IVA," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -6223,7 +6218,7 @@
         <f t="shared" ref="D262:D325" si="9">IF(AND(B262="ABBIGLIAMENTO",C262&gt;300000),"TROVATO"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E262" s="29" t="str">
+      <c r="E262" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6242,7 +6237,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E263" s="29" t="str">
+      <c r="E263" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6261,7 +6256,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E264" s="29" t="str">
+      <c r="E264" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6280,7 +6275,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E265" s="29" t="str">
+      <c r="E265" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6299,7 +6294,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E266" s="29" t="str">
+      <c r="E266" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6318,7 +6313,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E267" s="29" t="str">
+      <c r="E267" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6337,7 +6332,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E268" s="29" t="str">
+      <c r="E268" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6356,7 +6351,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E269" s="29" t="str">
+      <c r="E269" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6375,7 +6370,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E270" s="29" t="str">
+      <c r="E270" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6394,7 +6389,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E271" s="29" t="str">
+      <c r="E271" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6413,7 +6408,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E272" s="29" t="str">
+      <c r="E272" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6432,7 +6427,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E273" s="29" t="str">
+      <c r="E273" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6451,7 +6446,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E274" s="29" t="str">
+      <c r="E274" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6470,7 +6465,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E275" s="29" t="str">
+      <c r="E275" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6489,7 +6484,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E276" s="29" t="str">
+      <c r="E276" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6508,7 +6503,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E277" s="29" t="str">
+      <c r="E277" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6527,7 +6522,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E278" s="29" t="str">
+      <c r="E278" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6546,7 +6541,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E279" s="29" t="str">
+      <c r="E279" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6565,7 +6560,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E280" s="29" t="str">
+      <c r="E280" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6584,7 +6579,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E281" s="29" t="str">
+      <c r="E281" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6596,14 +6591,12 @@
       <c r="B282" t="s">
         <v>58</v>
       </c>
-      <c r="C282" s="10">
-        <v>0</v>
-      </c>
+      <c r="C282" s="30"/>
       <c r="D282" s="7" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E282" s="29" t="str">
+      <c r="E282" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6622,7 +6615,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E283" s="29" t="str">
+      <c r="E283" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6641,7 +6634,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E284" s="29" t="str">
+      <c r="E284" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6660,7 +6653,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E285" s="29" t="str">
+      <c r="E285" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6679,7 +6672,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E286" s="29" t="str">
+      <c r="E286" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6698,7 +6691,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E287" s="29" t="str">
+      <c r="E287" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6717,7 +6710,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E288" s="29" t="str">
+      <c r="E288" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6736,7 +6729,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E289" s="29" t="str">
+      <c r="E289" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6755,7 +6748,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E290" s="29" t="str">
+      <c r="E290" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6774,7 +6767,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E291" s="29" t="str">
+      <c r="E291" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6793,7 +6786,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E292" s="29" t="str">
+      <c r="E292" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6812,7 +6805,7 @@
         <f t="shared" si="9"/>
         <v>TROVATO</v>
       </c>
-      <c r="E293" s="29" t="str">
+      <c r="E293" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6831,7 +6824,7 @@
         <f t="shared" si="9"/>
         <v>TROVATO</v>
       </c>
-      <c r="E294" s="29" t="str">
+      <c r="E294" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6850,7 +6843,7 @@
         <f t="shared" si="9"/>
         <v>TROVATO</v>
       </c>
-      <c r="E295" s="29" t="str">
+      <c r="E295" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6869,7 +6862,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E296" s="29" t="str">
+      <c r="E296" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6888,7 +6881,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E297" s="29" t="str">
+      <c r="E297" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6907,7 +6900,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E298" s="29" t="str">
+      <c r="E298" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6926,7 +6919,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E299" s="29" t="str">
+      <c r="E299" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6945,7 +6938,7 @@
         <f t="shared" si="9"/>
         <v>TROVATO</v>
       </c>
-      <c r="E300" s="29" t="str">
+      <c r="E300" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6964,7 +6957,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E301" s="29" t="str">
+      <c r="E301" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6983,7 +6976,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E302" s="29" t="str">
+      <c r="E302" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7002,7 +6995,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E303" s="29" t="str">
+      <c r="E303" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7021,7 +7014,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E304" s="29" t="str">
+      <c r="E304" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7040,7 +7033,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E305" s="29" t="str">
+      <c r="E305" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7059,7 +7052,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E306" s="29" t="str">
+      <c r="E306" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7078,7 +7071,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E307" s="29" t="str">
+      <c r="E307" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7097,7 +7090,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E308" s="29" t="str">
+      <c r="E308" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7116,7 +7109,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E309" s="29" t="str">
+      <c r="E309" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7135,7 +7128,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E310" s="29" t="str">
+      <c r="E310" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7154,7 +7147,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E311" s="29" t="str">
+      <c r="E311" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7173,7 +7166,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E312" s="29" t="str">
+      <c r="E312" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7192,7 +7185,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E313" s="29" t="str">
+      <c r="E313" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7211,7 +7204,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E314" s="29" t="str">
+      <c r="E314" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7230,7 +7223,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E315" s="29" t="str">
+      <c r="E315" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7249,7 +7242,7 @@
         <f t="shared" si="9"/>
         <v>TROVATO</v>
       </c>
-      <c r="E316" s="29" t="str">
+      <c r="E316" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7261,14 +7254,12 @@
       <c r="B317" t="s">
         <v>22</v>
       </c>
-      <c r="C317" s="10">
-        <v>0</v>
-      </c>
+      <c r="C317" s="30"/>
       <c r="D317" s="7" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E317" s="29" t="str">
+      <c r="E317" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7287,7 +7278,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E318" s="29" t="str">
+      <c r="E318" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7306,7 +7297,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E319" s="29" t="str">
+      <c r="E319" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7325,7 +7316,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E320" s="29" t="str">
+      <c r="E320" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7344,7 +7335,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E321" s="29" t="str">
+      <c r="E321" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7363,7 +7354,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E322" s="29" t="str">
+      <c r="E322" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7382,7 +7373,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E323" s="29">
+      <c r="E323" s="28">
         <f t="shared" si="8"/>
         <v>16800</v>
       </c>
@@ -7401,7 +7392,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E324" s="29" t="str">
+      <c r="E324" s="28" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7420,7 +7411,7 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E325" s="29" t="str">
+      <c r="E325" s="28" t="str">
         <f t="shared" ref="E325:E340" si="10">IF(A325="HHB",C325*IVA," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -7439,7 +7430,7 @@
         <f t="shared" ref="D326:D340" si="11">IF(AND(B326="ABBIGLIAMENTO",C326&gt;300000),"TROVATO"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E326" s="29" t="str">
+      <c r="E326" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7458,7 +7449,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E327" s="29" t="str">
+      <c r="E327" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7470,14 +7461,14 @@
       <c r="B328" t="s">
         <v>38</v>
       </c>
-      <c r="C328" s="10">
+      <c r="C328" s="30">
         <v>0</v>
       </c>
       <c r="D328" s="7" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E328" s="29">
+      <c r="E328" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7496,7 +7487,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E329" s="29" t="str">
+      <c r="E329" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7515,7 +7506,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E330" s="29" t="str">
+      <c r="E330" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7534,7 +7525,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E331" s="29" t="str">
+      <c r="E331" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7553,7 +7544,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E332" s="29" t="str">
+      <c r="E332" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7572,7 +7563,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E333" s="29" t="str">
+      <c r="E333" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7591,7 +7582,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E334" s="29" t="str">
+      <c r="E334" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7610,7 +7601,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E335" s="29" t="str">
+      <c r="E335" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7629,7 +7620,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E336" s="29" t="str">
+      <c r="E336" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7648,7 +7639,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E337" s="29" t="str">
+      <c r="E337" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7667,7 +7658,7 @@
         <f t="shared" si="11"/>
         <v>TROVATO</v>
       </c>
-      <c r="E338" s="29" t="str">
+      <c r="E338" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7686,7 +7677,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E339" s="29" t="str">
+      <c r="E339" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7705,7 +7696,7 @@
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E340" s="29" t="str">
+      <c r="E340" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7800,10 +7791,10 @@
       <c r="E3" s="3">
         <v>29</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f>SUMIF(C:C,G3,$D:$D)</f>
         <v>611780</v>
       </c>
@@ -7824,10 +7815,10 @@
       <c r="E4" s="3">
         <v>21</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f t="shared" ref="H4:H6" si="0">SUMIF(C:C,G4,$D:$D)</f>
         <v>30860</v>
       </c>
@@ -7848,10 +7839,10 @@
       <c r="E5" s="3">
         <v>29</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
@@ -7872,10 +7863,10 @@
       <c r="E6" s="3">
         <v>15</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f t="shared" si="0"/>
         <v>6765600</v>
       </c>
@@ -7896,8 +7887,8 @@
       <c r="E7" s="3">
         <v>22</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -7915,10 +7906,10 @@
       <c r="E8" s="3">
         <v>21</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <f>SUMIF(B:B,G8,D:D)</f>
         <v>73450</v>
       </c>
@@ -7939,10 +7930,10 @@
       <c r="E9" s="3">
         <v>18</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <f t="shared" ref="H9:H14" si="1">SUMIF(B:B,G9,D:D)</f>
         <v>50800</v>
       </c>
@@ -7963,10 +7954,10 @@
       <c r="E10" s="3">
         <v>23</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <f t="shared" si="1"/>
         <v>98450</v>
       </c>
@@ -7987,10 +7978,10 @@
       <c r="E11" s="3">
         <v>24</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <f t="shared" si="1"/>
         <v>7950</v>
       </c>
@@ -8011,10 +8002,10 @@
       <c r="E12" s="3">
         <v>27</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f t="shared" si="1"/>
         <v>283000</v>
       </c>
@@ -8035,10 +8026,10 @@
       <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <f t="shared" si="1"/>
         <v>107700</v>
       </c>
@@ -8059,10 +8050,10 @@
       <c r="E14" s="3">
         <v>17</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f t="shared" si="1"/>
         <v>27270</v>
       </c>
@@ -9222,51 +9213,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>125</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <f>SUMIF(comuni,"OSSENIGO",abitanti)</f>
         <v>130</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <f>VLOOKUP(A5,comuni:abitanti,2,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>221</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>196</v>
       </c>
       <c r="E4">
@@ -9275,22 +9266,22 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>197</v>
       </c>
       <c r="E6">
@@ -9299,21 +9290,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>35</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>199</v>
       </c>
       <c r="E8">
@@ -9322,21 +9313,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>48</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E10">
@@ -9345,802 +9336,802 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="23">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="23">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="23">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="23">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="23">
         <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="23">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="23">
         <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="23">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="23">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="24">
+      <c r="B64" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B65" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="24">
+      <c r="B68" s="23">
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B69" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="23">
         <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="23">
         <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B78" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="24">
+      <c r="B80" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="24">
+      <c r="B82" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="24">
+      <c r="B84" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B85" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="24">
+      <c r="B86" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B87" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="24">
+      <c r="B88" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="24">
+      <c r="B89" s="23">
         <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B90" s="23">
         <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B92" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="24">
+      <c r="B93" s="23">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B94" s="23">
         <v>396</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="24">
+      <c r="B95" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="24">
+      <c r="B96" s="23">
         <v>8879</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="24">
+      <c r="B97" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B98" s="24">
+      <c r="B98" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B99" s="24">
+      <c r="B99" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="24">
+      <c r="B100" s="23">
         <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="24">
+      <c r="B101" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="24">
+      <c r="B102" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="24">
+      <c r="B103" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="24">
+      <c r="B104" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B105" s="24">
+      <c r="B105" s="23">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="24">
+      <c r="B106" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="24">
+      <c r="B107" s="23">
         <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B108" s="24">
+      <c r="B108" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="24">
+      <c r="B109" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="24" t="s">
+      <c r="A110" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="24">
+      <c r="B110" s="23">
         <v>21</v>
       </c>
     </row>
